--- a/500all/speech_level/speeches_CHRG-114hhrg93911.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93911.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Good morning. The subcommittee will come to order. I would like to thank our distinguished witnesses, Assistant Secretary Nisha Biswal and Assistant Administrator Jonathan Stivers for coming here this morning. Thank you very much.    This hearing was called to assess the Fiscal Year 2016 State Department and U.S. Agency for International Development budget requests for the South Asia region. Today I would like to focus on how U.S. funds support the health of South Asia's democratic institutions, the strength of economic development in the region, and the management of the latent security concerns.    The relationship between the United States and countries in South Asia concerning those issues is very ripe for cooperation. Robust relations with South Asian countries would significantly bolster our rebalance to Asia. However, the region also faces some significant economic, security and human rights challenges.    To start, Bangladesh continues to face severe political challenges with in-fighting between Bangladesh National Party and the Awami League which has begun to impede on development and citizens' livelihoods. India must address development challenges for a significant part of its population with over 300 million Indians still living without electricity.    During our trip to India, the Prime Minister was noted for saying let us build toilets instead of temples, showing what a serious development it is in that region of the world. There is about a quarter of the Indian population that don't have electricity. The Maldives is increasingly a hub for foreign fighters and religious extremism, yet the issue goes unnoticed.    The United States uses limited resources to assist South Asian nations, facilitating their democratic infrastructure and economic development. Despite the region's shifting geopolitical landscape, increasingly complex security outlook, lingering human rights issues and enduring obstacles in development, U.S. foreign assistance in South Asia has actually fallen by 48 percent, from $2.2 billion to $1.1 billion not including food aid between Fiscal Year 2012 and the requested budget for 2016. I implore our distinguished witnesses to explain whether the United States is doing enough and whether our limited funding to the region could be better utilized.    The administration requested $168 million for assistance in Bangladesh in Fiscal Year 2015 and the request for Fiscal Year 2016 is $172 million, an almost 2.5 percent increase. The vast majority of our aid dollars go to Bangladesh yet we see little improvement in living and working conditions, especially in the provision of social services. I worry that the instability caused from the rivalry between the two major political parties has disrupted our aid efforts. I hope that Assistant Secretary Biswal and Assistant Administrator Stivers will be able to explain how our contributions would be best used in Bangladesh.    India is a country of vast opportunity for collaboration on development, trade and defense. It is the world's largest democracy and it is indeed an increasingly important partner in maintaining regional peace and stability.    I visited, as I mentioned, India earlier this month and I was really, really impressed with many of the reforms that are being spoken of by the Prime Minister, and I am very hopeful that things in India will significantly improve and it will be a much more robust economy. Of course they have to have a lot larger growth rate to accommodate the, what is it, about 1 million new jobs a month? Pretty significant. I look forward to staying extremely engaged with India as the country continues to pursue their aggressive agenda of economic and infrastructure development.    I am concerned however about the treatment of women and minorities. In particular I am concerned that the government has been suppressing discourse about women's rights. The Indian Government was reported to have censored a BBC documentary about the gang rape of a 23-year-old Delhi woman. It is particularly disturbing to our principles of free speech and women's rights. I would like to know whether our administration has brought this up with the Indian Government. That was quite a topic of conversation while we were there. I believe it was called ``India's Daughter.''    There is not enough attention paid to the Maldives, a democratic nation of many small islands but one that sits in the middle of key shipping lanes in the region. While maritime traffic flows past the Maldivian islands, maritime security is of major concern due to political threats posed by narcotics trafficking, piracy in the Indian Ocean and potential seaborne terrorist activity.    Further reports of growing extremism greatly concern me. Why are the Maldive's serving as a hub for the recruitment of religious extremists? How are we addressing these grave concerns to our international stability and our national security?    The newly elected Sri Lankan President Sirisena recently stated he will revisit deals signed with China by his predecessor President Rajapaksa. With increased trade and investment between the two countries, Sri Lanka risks being wooed by China through major investment and infrastructure construction initiatives. I would like to know what we can do to ensure that Sri Lanka does not become dependent on China for development and what we can do to assist the new government in addressing domestic, economic and development challenges. The requested budget must focus on promoting more democratic and accountable governance, promoting sustainable economic development and opportunities for trade and commerce in the region.    Other countries, Bhutan and Nepal, are also extremely important to our efforts in South Asia and I hope today's witnesses will be able to address them as well. I look forward to hearing from our distinguished witnesses this afternoon, and I now yield to Mr. Sherman, the ranking member of the subcommittee, for his opening remarks.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. It is entirely appropriate that we have these hearings focusing on an area with almost 2 billion people and an area in where almost half those people are under 25.    Our witnesses focus on all of the countries of South Asia with the--what should we say--shared jurisdiction with regard to Pakistan, and I know our subcommittee includes all of South Asia. There are special both aid and diplomatic authorities to deal with Pakistan and Afghanistan and maybe we would hold joint hearings looking at those two countries together. Maybe next year we will make your Pakistan/Afghanistan counterparts do double duty and come before us as well as the other subcommittee.    As to India, I think it will go down in world history to have an election in which 553 million people cast ballots as occurred in April and May of last year. India is one of our most important strategic and geopolitical partners, many important issues face the country, and I look forward to hearing from our witnesses.    As to economic relations, Ms. Biswal, you have testified before, before our subcommittee, about the importance of negotiating a bilateral investment treaty between our country. In joint statements that have come out, President Obama's visit to India in January, there is further talk of this treaty.    Now, right now our trade is about $100 billion in goods and services and we are already running a $30-billion trade deficit, 30 percent. I am interested in how the administration isn't just going to have more trade but more balanced trade. Very executive agencies of our Government have occasionally testified that if you could increase American trade by having $1 billion of new exports and $2 billion of new imports that that was wonderful. Three billion dollars in trade. The fact is, unbalanced trade means we lose jobs, and I join the Vice President in a goal of $500 billion of bilateral trade, 250 and 250.    One element of this is the U.S.-India nuclear cooperation agreement. When we voted in favor of that we were told that India would open up its market to U.S. companies by making the necessary changes in its liability laws. To date I am not sure they have done that and I look forward to hearing from our witnesses. I would hate to think that we voted for that agreement believing certain things that didn't turn out to be true and then we are being given another agreement to vote on.    As to Bangladesh, the democratic process is weak. One third of the people live in extreme poverty. The two matriarchs fight over power. One of the dominant parties boycotted the elections altogether, and I look forward to you solving that problem easily in the next few months.    And of course when we focus on Bangladesh we need to focus on labor and working conditions. So many of us see their products in our stores. I know that there is some progress, some 200 labor unions have been established, a number of unsafe factories have been closed down. But then 2 weeks ago a roof collapses on another Bangladeshi factory and we are left with many dead and injured.    As to Sri Lanka we saw a real test of a democracy. And the greatest test of a democracy is when one party is voted out, another party is voted in, the party that is voted in actually takes power. The new President's soon to be empowered Parliament have to resolve a lot of human rights issues growing out of the 26-year-long civil war.    I understand our 2016 budget was drawn up before the surprise elections. Now hopefully we will be able to help the new President with truth and reconciliation, and the new government of course faces the possibility of nonconstitutional attack from both the former President but more importantly perhaps the former President's brother, former Defense Minister who was implicated in certain unwarranted and tragic instances at the end of the civil war.    So I see that the new President is open to trials taking place in Sri Lanka, and they might do more to heal the country than the trials taking place at the International Criminal Court or some other far-off land. I have got wonderful paragraphs written by a brilliant staff about Nepal, but my time has expired and I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    I want to welcome both of our witnesses. And I think, Mr. Stivers, this is your first. This is your debut on that side of the table so we have to be gentle.    And Ms. Biswal, let the record show you represent our Government. There seemed to be some confusion about that in the past. It is great to have you both here.    One of the things I hope we get a chance to hear from you is, I am interested in efficacy of foreign economic, of our economic assistance. We have been in South Asia a long time, and to what extent can we correlate the investments we have made over the decades with metrics that matter like GDP, the rise out of poverty, infant mortality or survivability, food production, job growth and the like, or is it just an incidental that has helped make things better marginally?    I think that is critical to this question, because how does aid play a role in our foreign policy in this corner of the world, especially the title of our hearing is The U.S. Rebalance in South Asia? Well, is economic assistance a critical tool as part of that rebalancing? What is that rebalancing? What is the role that aid is going to play and how does it make people's lives better? And how do the recipients of this investment by the U.S. taxpayer know about it? Do they make the connection that their lives are improving because of this investment the American people have made?    And I would be very interested in that because we have been at this game a long time, and I do believe that actually there are such metrics but I don't think we always do as good a job in the narrative as we should which affects support here for those investments. And if we are going to sustain them and maybe even build upon them, I think we have to have a compelling narrative and we have got to have metrics that are compelling as well.    So I look forward to your testimony in setting that context. And I am going to be in an out because I have another hearing as well, but I will be following what you say. At any rate, thank you, and Mr. Chairman, thank you for the time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman and Ranking Member Sherman. Good morning and welcome, Assistant Secretary Biswal, and a special welcome to Assistant Administrator Jonathan Stivers. I am pleased to have this opportunity to explore the importance of South Asia and the President's budget and the rebalance to Asia.    My district in Queens, New York, is home to a vibrant South Asian community with residents from all over the subcontinent, but especially India, Bangladesh, Nepal and Sri Lanka. In fact, the U.S. is home to well over 3.4 million South Asian-Americans, and this rapidly growing population has only aided in improving ties between the U.S. and the region.    The increase in bilateral cooperation between the U.S. and India, the latest anti-corruption and unifying policies of the new President of Sri Lanka, these are points to celebrate. But right now what I find most urgent is the continuing violence in Bangladesh. I will come back to this point when we have time for questions later in the hearing.    Thank you, I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. I will share my quick opening statement. I had, one, it is great to see both of you here, and as my colleague from Virginia said, we will take it easy on you, Mr. Stivers, today.    I had the privilege of going with Chairman Salmon to India a few weeks ago on a trip led by the chairman of the full committee Mr. Royce. And this is on the heels of the President's visit to India in January. So there is a general sense of optimism and the potential here, but there is also, obviously there are challenges as well.    We had a chance to visit with the Prime Minister again and many of his cabinet members, so from the Prime Minister's agenda our sense is he clearly does want to see this partnership grow. And you have seen some positive pieces of legislation like the raising of the FDI caps on insurance that really can have a tremendous benefit to allowing foreign investment to flow into India to help the Prime Minister reach his pretty ambitious goals.    Also when we were on the ground in New Delhi we were able to see some of USAID's work firsthand visiting the Vivekananda Slums and looking at some of the work that they are doing on the ground to address issues of sanitation, clean water, empowering local communities, and really talking to the staff on the ground and talking to some of the folks within the Indian administration.    You are moving India from being a donor recipient country to a country that is actually then going into places like Afghanistan, going into some of the countries in Africa and becoming a donor nation as well and helping that development. And I think that is a real success story for USAID to help India develop its own capacity to be a donor nation.    So I look forward to the testimony, and again look forward to continuing this momentum on the U.S.-India partnership.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman, very briefly.    Welcome back and welcome, good to see you both here. As we look toward this focus in rebalance toward the Asia Pacific it is impossible to talk about this without talking about South Asia, so this focus of the hearing today is so critical.    As we look around the world at different hotspots and different areas of concern and emerging and growing threats, I think the relative stability overall that we see in the region, I think, comes from the fact that there is this proactive engagement from a strategic sense, from a cultural sense as well as an economic sense, and I think that is connecting each of these three things.    Connecting our people, our businesses, our militaries is what is critical for us as we look at moving forward and really building this strong partnership. Obviously the India-U.S. relationship and really growing friendship is one of the most important elements of this, so I look forward to hearing from you today. Thank you.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Biswal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Biswal. Thank you, Mr. Chairman. Mr. Chairman, Ranking Member Sherman, members of the subcommittee, thank you for inviting me to testify today. I appreciate the very important role that this committee plays in shaping U.S. policy. Before I begin I ask that my full statement be entered into the record and I will summarize my comments.</t>
   </si>
   <si>
@@ -134,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers?</t>
-  </si>
-  <si>
-    <t>Stivers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, and distinguished members of the subcommittee, thank you for the opportunity to testify today on advancing our foreign policy goals in South Asia. Before I begin I would like to request that my full statement be entered in the record.</t>
@@ -667,11 +643,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -691,13 +665,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -719,11 +691,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -743,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -771,11 +739,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -795,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -823,11 +787,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -847,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -875,11 +835,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -899,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -927,11 +883,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -951,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -979,11 +931,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1003,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1031,11 +979,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1055,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1083,11 +1027,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1107,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1135,11 +1075,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1159,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1187,11 +1123,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1211,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1237,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1263,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1289,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1315,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1341,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1367,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1393,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1419,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1445,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1471,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1497,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1523,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1551,11 +1459,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1575,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1601,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1627,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1653,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1679,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1707,11 +1603,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1731,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1757,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1785,11 +1675,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1809,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1835,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1861,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1887,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1913,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1939,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1965,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1993,11 +1867,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2017,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2043,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2069,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2095,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2121,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2149,11 +2011,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2173,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2201,11 +2059,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93911.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93911.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Good morning. The subcommittee will come to order. I would like to thank our distinguished witnesses, Assistant Secretary Nisha Biswal and Assistant Administrator Jonathan Stivers for coming here this morning. Thank you very much.    This hearing was called to assess the Fiscal Year 2016 State Department and U.S. Agency for International Development budget requests for the South Asia region. Today I would like to focus on how U.S. funds support the health of South Asia's democratic institutions, the strength of economic development in the region, and the management of the latent security concerns.    The relationship between the United States and countries in South Asia concerning those issues is very ripe for cooperation. Robust relations with South Asian countries would significantly bolster our rebalance to Asia. However, the region also faces some significant economic, security and human rights challenges.    To start, Bangladesh continues to face severe political challenges with in-fighting between Bangladesh National Party and the Awami League which has begun to impede on development and citizens' livelihoods. India must address development challenges for a significant part of its population with over 300 million Indians still living without electricity.    During our trip to India, the Prime Minister was noted for saying let us build toilets instead of temples, showing what a serious development it is in that region of the world. There is about a quarter of the Indian population that don't have electricity. The Maldives is increasingly a hub for foreign fighters and religious extremism, yet the issue goes unnoticed.    The United States uses limited resources to assist South Asian nations, facilitating their democratic infrastructure and economic development. Despite the region's shifting geopolitical landscape, increasingly complex security outlook, lingering human rights issues and enduring obstacles in development, U.S. foreign assistance in South Asia has actually fallen by 48 percent, from $2.2 billion to $1.1 billion not including food aid between Fiscal Year 2012 and the requested budget for 2016. I implore our distinguished witnesses to explain whether the United States is doing enough and whether our limited funding to the region could be better utilized.    The administration requested $168 million for assistance in Bangladesh in Fiscal Year 2015 and the request for Fiscal Year 2016 is $172 million, an almost 2.5 percent increase. The vast majority of our aid dollars go to Bangladesh yet we see little improvement in living and working conditions, especially in the provision of social services. I worry that the instability caused from the rivalry between the two major political parties has disrupted our aid efforts. I hope that Assistant Secretary Biswal and Assistant Administrator Stivers will be able to explain how our contributions would be best used in Bangladesh.    India is a country of vast opportunity for collaboration on development, trade and defense. It is the world's largest democracy and it is indeed an increasingly important partner in maintaining regional peace and stability.    I visited, as I mentioned, India earlier this month and I was really, really impressed with many of the reforms that are being spoken of by the Prime Minister, and I am very hopeful that things in India will significantly improve and it will be a much more robust economy. Of course they have to have a lot larger growth rate to accommodate the, what is it, about 1 million new jobs a month? Pretty significant. I look forward to staying extremely engaged with India as the country continues to pursue their aggressive agenda of economic and infrastructure development.    I am concerned however about the treatment of women and minorities. In particular I am concerned that the government has been suppressing discourse about women's rights. The Indian Government was reported to have censored a BBC documentary about the gang rape of a 23-year-old Delhi woman. It is particularly disturbing to our principles of free speech and women's rights. I would like to know whether our administration has brought this up with the Indian Government. That was quite a topic of conversation while we were there. I believe it was called ``India's Daughter.''    There is not enough attention paid to the Maldives, a democratic nation of many small islands but one that sits in the middle of key shipping lanes in the region. While maritime traffic flows past the Maldivian islands, maritime security is of major concern due to political threats posed by narcotics trafficking, piracy in the Indian Ocean and potential seaborne terrorist activity.    Further reports of growing extremism greatly concern me. Why are the Maldive's serving as a hub for the recruitment of religious extremists? How are we addressing these grave concerns to our international stability and our national security?    The newly elected Sri Lankan President Sirisena recently stated he will revisit deals signed with China by his predecessor President Rajapaksa. With increased trade and investment between the two countries, Sri Lanka risks being wooed by China through major investment and infrastructure construction initiatives. I would like to know what we can do to ensure that Sri Lanka does not become dependent on China for development and what we can do to assist the new government in addressing domestic, economic and development challenges. The requested budget must focus on promoting more democratic and accountable governance, promoting sustainable economic development and opportunities for trade and commerce in the region.    Other countries, Bhutan and Nepal, are also extremely important to our efforts in South Asia and I hope today's witnesses will be able to address them as well. I look forward to hearing from our distinguished witnesses this afternoon, and I now yield to Mr. Sherman, the ranking member of the subcommittee, for his opening remarks.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. It is entirely appropriate that we have these hearings focusing on an area with almost 2 billion people and an area in where almost half those people are under 25.    Our witnesses focus on all of the countries of South Asia with the--what should we say--shared jurisdiction with regard to Pakistan, and I know our subcommittee includes all of South Asia. There are special both aid and diplomatic authorities to deal with Pakistan and Afghanistan and maybe we would hold joint hearings looking at those two countries together. Maybe next year we will make your Pakistan/Afghanistan counterparts do double duty and come before us as well as the other subcommittee.    As to India, I think it will go down in world history to have an election in which 553 million people cast ballots as occurred in April and May of last year. India is one of our most important strategic and geopolitical partners, many important issues face the country, and I look forward to hearing from our witnesses.    As to economic relations, Ms. Biswal, you have testified before, before our subcommittee, about the importance of negotiating a bilateral investment treaty between our country. In joint statements that have come out, President Obama's visit to India in January, there is further talk of this treaty.    Now, right now our trade is about $100 billion in goods and services and we are already running a $30-billion trade deficit, 30 percent. I am interested in how the administration isn't just going to have more trade but more balanced trade. Very executive agencies of our Government have occasionally testified that if you could increase American trade by having $1 billion of new exports and $2 billion of new imports that that was wonderful. Three billion dollars in trade. The fact is, unbalanced trade means we lose jobs, and I join the Vice President in a goal of $500 billion of bilateral trade, 250 and 250.    One element of this is the U.S.-India nuclear cooperation agreement. When we voted in favor of that we were told that India would open up its market to U.S. companies by making the necessary changes in its liability laws. To date I am not sure they have done that and I look forward to hearing from our witnesses. I would hate to think that we voted for that agreement believing certain things that didn't turn out to be true and then we are being given another agreement to vote on.    As to Bangladesh, the democratic process is weak. One third of the people live in extreme poverty. The two matriarchs fight over power. One of the dominant parties boycotted the elections altogether, and I look forward to you solving that problem easily in the next few months.    And of course when we focus on Bangladesh we need to focus on labor and working conditions. So many of us see their products in our stores. I know that there is some progress, some 200 labor unions have been established, a number of unsafe factories have been closed down. But then 2 weeks ago a roof collapses on another Bangladeshi factory and we are left with many dead and injured.    As to Sri Lanka we saw a real test of a democracy. And the greatest test of a democracy is when one party is voted out, another party is voted in, the party that is voted in actually takes power. The new President's soon to be empowered Parliament have to resolve a lot of human rights issues growing out of the 26-year-long civil war.    I understand our 2016 budget was drawn up before the surprise elections. Now hopefully we will be able to help the new President with truth and reconciliation, and the new government of course faces the possibility of nonconstitutional attack from both the former President but more importantly perhaps the former President's brother, former Defense Minister who was implicated in certain unwarranted and tragic instances at the end of the civil war.    So I see that the new President is open to trials taking place in Sri Lanka, and they might do more to heal the country than the trials taking place at the International Criminal Court or some other far-off land. I have got wonderful paragraphs written by a brilliant staff about Nepal, but my time has expired and I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    I want to welcome both of our witnesses. And I think, Mr. Stivers, this is your first. This is your debut on that side of the table so we have to be gentle.    And Ms. Biswal, let the record show you represent our Government. There seemed to be some confusion about that in the past. It is great to have you both here.    One of the things I hope we get a chance to hear from you is, I am interested in efficacy of foreign economic, of our economic assistance. We have been in South Asia a long time, and to what extent can we correlate the investments we have made over the decades with metrics that matter like GDP, the rise out of poverty, infant mortality or survivability, food production, job growth and the like, or is it just an incidental that has helped make things better marginally?    I think that is critical to this question, because how does aid play a role in our foreign policy in this corner of the world, especially the title of our hearing is The U.S. Rebalance in South Asia? Well, is economic assistance a critical tool as part of that rebalancing? What is that rebalancing? What is the role that aid is going to play and how does it make people's lives better? And how do the recipients of this investment by the U.S. taxpayer know about it? Do they make the connection that their lives are improving because of this investment the American people have made?    And I would be very interested in that because we have been at this game a long time, and I do believe that actually there are such metrics but I don't think we always do as good a job in the narrative as we should which affects support here for those investments. And if we are going to sustain them and maybe even build upon them, I think we have to have a compelling narrative and we have got to have metrics that are compelling as well.    So I look forward to your testimony in setting that context. And I am going to be in an out because I have another hearing as well, but I will be following what you say. At any rate, thank you, and Mr. Chairman, thank you for the time.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman and Ranking Member Sherman. Good morning and welcome, Assistant Secretary Biswal, and a special welcome to Assistant Administrator Jonathan Stivers. I am pleased to have this opportunity to explore the importance of South Asia and the President's budget and the rebalance to Asia.    My district in Queens, New York, is home to a vibrant South Asian community with residents from all over the subcontinent, but especially India, Bangladesh, Nepal and Sri Lanka. In fact, the U.S. is home to well over 3.4 million South Asian-Americans, and this rapidly growing population has only aided in improving ties between the U.S. and the region.    The increase in bilateral cooperation between the U.S. and India, the latest anti-corruption and unifying policies of the new President of Sri Lanka, these are points to celebrate. But right now what I find most urgent is the continuing violence in Bangladesh. I will come back to this point when we have time for questions later in the hearing.    Thank you, I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. I will share my quick opening statement. I had, one, it is great to see both of you here, and as my colleague from Virginia said, we will take it easy on you, Mr. Stivers, today.    I had the privilege of going with Chairman Salmon to India a few weeks ago on a trip led by the chairman of the full committee Mr. Royce. And this is on the heels of the President's visit to India in January. So there is a general sense of optimism and the potential here, but there is also, obviously there are challenges as well.    We had a chance to visit with the Prime Minister again and many of his cabinet members, so from the Prime Minister's agenda our sense is he clearly does want to see this partnership grow. And you have seen some positive pieces of legislation like the raising of the FDI caps on insurance that really can have a tremendous benefit to allowing foreign investment to flow into India to help the Prime Minister reach his pretty ambitious goals.    Also when we were on the ground in New Delhi we were able to see some of USAID's work firsthand visiting the Vivekananda Slums and looking at some of the work that they are doing on the ground to address issues of sanitation, clean water, empowering local communities, and really talking to the staff on the ground and talking to some of the folks within the Indian administration.    You are moving India from being a donor recipient country to a country that is actually then going into places like Afghanistan, going into some of the countries in Africa and becoming a donor nation as well and helping that development. And I think that is a real success story for USAID to help India develop its own capacity to be a donor nation.    So I look forward to the testimony, and again look forward to continuing this momentum on the U.S.-India partnership.</t>
   </si>
   <si>
@@ -94,6 +127,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman, very briefly.    Welcome back and welcome, good to see you both here. As we look toward this focus in rebalance toward the Asia Pacific it is impossible to talk about this without talking about South Asia, so this focus of the hearing today is so critical.    As we look around the world at different hotspots and different areas of concern and emerging and growing threats, I think the relative stability overall that we see in the region, I think, comes from the fact that there is this proactive engagement from a strategic sense, from a cultural sense as well as an economic sense, and I think that is connecting each of these three things.    Connecting our people, our businesses, our militaries is what is critical for us as we look at moving forward and really building this strong partnership. Obviously the India-U.S. relationship and really growing friendship is one of the most important elements of this, so I look forward to hearing from you today. Thank you.</t>
   </si>
   <si>
@@ -103,6 +142,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Biswal</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Biswal. Thank you, Mr. Chairman. Mr. Chairman, Ranking Member Sherman, members of the subcommittee, thank you for inviting me to testify today. I appreciate the very important role that this committee plays in shaping U.S. policy. Before I begin I ask that my full statement be entered into the record and I will summarize my comments.</t>
   </si>
   <si>
@@ -113,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers?</t>
+  </si>
+  <si>
+    <t>Stivers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, and distinguished members of the subcommittee, thank you for the opportunity to testify today on advancing our foreign policy goals in South Asia. Before I begin I would like to request that my full statement be entered in the record.</t>
@@ -593,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,1445 +668,1704 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93911.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93911.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412272</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Connolly</t>
@@ -638,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,1701 +683,1840 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
